--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/system.sync_log.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/system.sync_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E841DC-6117-044E-A300-B79EECB75765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8AFCE8-FBBD-074D-95B3-1E46F3A06092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70560" yWindow="-12520" windowWidth="43040" windowHeight="32280" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="3000" yWindow="5420" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="196">
   <si>
     <t>key</t>
   </si>
@@ -625,6 +625,26 @@
   </si>
   <si>
     <t>f18c41cc-c298-4ddf-b0e5-9b5feaecb404</t>
+  </si>
+  <si>
+    <t>抽象资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源访问配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seekSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:plugin/ke/rule.form/x.log.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -894,6 +914,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -912,10 +936,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47:K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1276,7 +1296,7 @@
     <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11" style="4"/>
   </cols>
@@ -1288,11 +1308,11 @@
       <c r="B2" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:9" s="21" customFormat="1">
       <c r="A3" s="22" t="s">
@@ -1304,12 +1324,12 @@
       <c r="C3" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" s="21" customFormat="1">
       <c r="A4" s="23" t="s">
@@ -1416,11 +1436,11 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="I12" s="3"/>
@@ -1584,15 +1604,15 @@
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
@@ -2121,7 +2141,8 @@
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
-      <c r="K43" s="14"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="5" t="s">
@@ -2151,6 +2172,12 @@
       <c r="I44" s="18" t="s">
         <v>53</v>
       </c>
+      <c r="J44" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="7" t="s">
@@ -2180,6 +2207,12 @@
       <c r="I45" s="7" t="s">
         <v>174</v>
       </c>
+      <c r="J45" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="10" t="s">
@@ -2205,6 +2238,12 @@
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
+      <c r="J46" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="s">
@@ -2230,6 +2269,8 @@
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="10" t="s">
@@ -2255,6 +2296,8 @@
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
@@ -2280,6 +2323,8 @@
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
@@ -2305,6 +2350,8 @@
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
@@ -2330,6 +2377,8 @@
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
@@ -2355,6 +2404,8 @@
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
@@ -2380,6 +2431,8 @@
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
@@ -2405,6 +2458,8 @@
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
@@ -2430,6 +2485,8 @@
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
@@ -2455,6 +2512,8 @@
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
@@ -2480,6 +2539,8 @@
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
@@ -2505,6 +2566,8 @@
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
@@ -2530,6 +2593,8 @@
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="10" t="s">
@@ -2555,6 +2620,8 @@
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="14"/>
@@ -2576,8 +2643,8 @@
   <mergeCells count="4">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C43:I43"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C43:K43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
